--- a/51_33.xlsx
+++ b/51_33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12508\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6317EC9-B6A1-4D88-812D-8D7EC419B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1274490C-4352-40A6-A4B5-F5AFD8BBB558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1195" workbookViewId="0">
-      <selection activeCell="K1211" sqref="K1211"/>
+    <sheetView tabSelected="1" topLeftCell="A887" workbookViewId="0">
+      <selection activeCell="H890" sqref="H890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -19503,7 +19503,7 @@
         <v>127101000000</v>
       </c>
       <c r="H732" s="1">
-        <v>1.2527629684953681</v>
+        <v>1.76296849537</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.4">
@@ -20387,7 +20387,7 @@
         <v>95188323404</v>
       </c>
       <c r="H766" s="1">
-        <v>-1.3217558399823195</v>
+        <v>1.3217558399823199</v>
       </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.4">
@@ -20413,7 +20413,7 @@
         <v>105814000000</v>
       </c>
       <c r="H767" s="1">
-        <v>-1.0116009116784799</v>
+        <v>1.0116009116784801</v>
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.4">
@@ -20439,7 +20439,7 @@
         <v>93870499432</v>
       </c>
       <c r="H768" s="1">
-        <v>-1.8718021769015913</v>
+        <v>1.87180217690159</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.4">
@@ -20465,7 +20465,7 @@
         <v>109085000000</v>
       </c>
       <c r="H769" s="1">
-        <v>-1.2992829841302609</v>
+        <v>1.29928298413026</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.4">
@@ -20491,7 +20491,7 @@
         <v>115782000000</v>
       </c>
       <c r="H770" s="1">
-        <v>-2.890371757896165</v>
+        <v>2.8903717578961601</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.4">
@@ -23585,7 +23585,7 @@
         <v>130055000000</v>
       </c>
       <c r="H889" s="1">
-        <v>-2.0794415416798357</v>
+        <v>-1.07944154167984</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.4">
@@ -23611,7 +23611,7 @@
         <v>138634000000</v>
       </c>
       <c r="H890" s="1">
-        <v>-2.4423470353692043</v>
+        <v>-1.4423470353692001</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.4">

--- a/51_33.xlsx
+++ b/51_33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12508\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D91F5C9-2CC1-43E5-B57F-F6543F85CA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612AB94A-F2A5-44AC-A197-BA39DAE2010E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="H717" sqref="H717"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6777,7 +6777,7 @@
         <v>29948335872</v>
       </c>
       <c r="H240" s="1">
-        <v>-0.95551144502743635</v>
+        <v>-2.5551144502743601</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.4">
@@ -6803,7 +6803,7 @@
         <v>30980579840</v>
       </c>
       <c r="H241" s="1">
-        <v>-0.44628710262841947</v>
+        <v>-2.84628710262841</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.4">
@@ -6829,7 +6829,7 @@
         <v>28119934208</v>
       </c>
       <c r="H242" s="1">
-        <v>-1.2527629684953681</v>
+        <v>-3.2527629684953698</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
